--- a/backend/init_data.xlsx
+++ b/backend/init_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,12 +18,11 @@
     <sheet name="target_area" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="pose" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="bookmark" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="pose_history" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="teacher_info" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="student_comment" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="teacher_info" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="student_comment" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">pose!$A$1:$E$32</definedName>
+    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">pose!$A$1:$E$31</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="414">
   <si>
     <t xml:space="preserve">email</t>
   </si>
@@ -82,21 +81,51 @@
     <t xml:space="preserve">james</t>
   </si>
   <si>
+    <t xml:space="preserve">ann@teacher.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bee@teacher.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user</t>
+  </si>
+  <si>
     <t xml:space="preserve">zeus@user.com</t>
   </si>
   <si>
     <t xml:space="preserve">zeus</t>
   </si>
   <si>
-    <t xml:space="preserve">user</t>
-  </si>
-  <si>
     <t xml:space="preserve">andrew@user.com</t>
   </si>
   <si>
     <t xml:space="preserve">andrew</t>
   </si>
   <si>
+    <t xml:space="preserve">emily@user.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ivy@user.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ivy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jack@user.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jack</t>
+  </si>
+  <si>
     <t xml:space="preserve">status</t>
   </si>
   <si>
@@ -193,7 +222,7 @@
     <t xml:space="preserve">venue_point</t>
   </si>
   <si>
-    <t xml:space="preserve">202504010800-1</t>
+    <t xml:space="preserve">202402011300-1</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Yoga 1</t>
@@ -208,10 +237,40 @@
     <t xml:space="preserve">English</t>
   </si>
   <si>
+    <t xml:space="preserve">hot2.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202402021300-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Yoga 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hot3.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202404010800-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Yoga 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">hot.jpeg</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-04-01</t>
+    <t xml:space="preserve">2024-04-01</t>
   </si>
   <si>
     <t xml:space="preserve">08:00</t>
@@ -220,58 +279,85 @@
     <t xml:space="preserve">09:00</t>
   </si>
   <si>
-    <t xml:space="preserve">202505011300-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hot Yoga 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hot2.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202505021300-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hot Yoga 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hot3.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-02-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202505031300-4</t>
+    <t xml:space="preserve">202405010800-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yin Yoga 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">offline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kowloon Bay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yin.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3267951,114.2086828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202405031300-5</t>
   </si>
   <si>
     <t xml:space="preserve">Hatha Yoga 1</t>
   </si>
   <si>
-    <t xml:space="preserve">offline</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tsuen Wan</t>
   </si>
   <si>
     <t xml:space="preserve">hatha.jpeg</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-03</t>
+    <t xml:space="preserve">2024-05-03</t>
   </si>
   <si>
     <t xml:space="preserve">22.3705783,114.1100666</t>
   </si>
   <si>
-    <t xml:space="preserve">202505101300-5</t>
+    <t xml:space="preserve">202405080800-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yin Yoga 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yin2.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202502221300-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202503010800-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202503030800-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202503031300-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202503080800-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202503101300-12</t>
   </si>
   <si>
     <t xml:space="preserve">Hatha Yoga 2</t>
@@ -280,40 +366,10 @@
     <t xml:space="preserve">hatha2.jpeg</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202505010800-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yin Yoga 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kowloon Bay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yin.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3267951,114.2086828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202505080800-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yin Yoga 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yin2.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-05-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202505150800-8</t>
+    <t xml:space="preserve">2025-03-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202503150800-13</t>
   </si>
   <si>
     <t xml:space="preserve">Yin Yoga 3</t>
@@ -322,10 +378,10 @@
     <t xml:space="preserve">yin3.jpeg</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202505210800-9</t>
+    <t xml:space="preserve">2025-03-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202503210800-14</t>
   </si>
   <si>
     <t xml:space="preserve">Yin Yoga 4</t>
@@ -337,13 +393,13 @@
     <t xml:space="preserve">yin4.jpeg</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202505280800-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-05-28</t>
+    <t xml:space="preserve">2025-03-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202503280800-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-28</t>
   </si>
   <si>
     <t xml:space="preserve">class_id</t>
@@ -1106,28 +1162,241 @@
     <t xml:space="preserve">full_name</t>
   </si>
   <si>
+    <t xml:space="preserve">refund_related_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">top-up</t>
   </si>
   <si>
-    <t xml:space="preserve">tp01</t>
+    <t xml:space="preserve">tp202401123001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tp202401123002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tp202401123003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tp202401123004</t>
   </si>
   <si>
     <t xml:space="preserve">use</t>
   </si>
   <si>
-    <t xml:space="preserve">ue02</t>
+    <t xml:space="preserve">ue202401241005</t>
   </si>
   <si>
     <t xml:space="preserve">earn</t>
   </si>
   <si>
-    <t xml:space="preserve">en03</t>
+    <t xml:space="preserve">en202401241006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ue202401241007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en202401241008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ue202401241009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en202401241010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ue202401241011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en202401241012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tp202402013013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tp202402013014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ue202402011015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en202402011016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ue202402011017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en202402011018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ue202402011019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en202402011020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ue202402011021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en202402011022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ue202402011023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en202402011024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ue202402011025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en202402011026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ue202402011027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en202402011028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ue202402011029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en202402011030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tp202401123031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tp202401123032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tp202401123033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tp202401123034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ue202402011035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en202402011036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ue202402011037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en202402011038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ue202402011039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en202402011040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ue202402011041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en202402011042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ue202402011043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en202402011044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ue202402011045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en202402011046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ue202402011047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en202402011048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ue202402011049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en202402011050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tp202401123051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ue202402011052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en202402011053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ue202402011054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en202402011055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tp202402013056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ue202402011057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en202402011058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ue202402011059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en202402011060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ue202402011061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en202402011062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tp202401123063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ue202402011064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en202402011065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ue202402011066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en202402011067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ue202402011068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en202402011069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ue202402011070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en202402011071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ue202402011072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en202402011073</t>
   </si>
   <si>
     <t xml:space="preserve">withdrawal</t>
   </si>
   <si>
-    <t xml:space="preserve">wl04</t>
+    <t xml:space="preserve">wl202502110074</t>
   </si>
   <si>
     <t xml:space="preserve">Lee Jim</t>
@@ -1160,6 +1429,9 @@
     <t xml:space="preserve">target_area_id</t>
   </si>
   <si>
+    <t xml:space="preserve">detect_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">bow pose</t>
   </si>
   <si>
@@ -1328,12 +1600,6 @@
     <t xml:space="preserve">hero.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">high lunge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">high.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">low lunge</t>
   </si>
   <si>
@@ -1355,21 +1621,6 @@
     <t xml:space="preserve">class</t>
   </si>
   <si>
-    <t xml:space="preserve">pose_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accuracy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_photo</t>
-  </si>
-  <si>
     <t xml:space="preserve">photo</t>
   </si>
   <si>
@@ -1409,6 +1660,24 @@
     <t xml:space="preserve">james.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">I am an E-RYT 200, RYT 500, Registered Yoga Instructor and YACEP (Yoga Alliance Continuing Education Provider) . Additionally, I am certified in Yin Yoga, Restorative Yoga, and Mindfulness Meditation. She currently teaches Vinyasa, Restorative, Yin Yoga, Yoga Hikes, and facilitates "On the Mat" Equestrian Yoga Workshops. In addition to Yoga.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ann.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> discovered yoga as a teenager and was immediately drawn to its ability to calm my mind, strengthen my body, and connect me to my inner self. I have since devoted my life to studying and practicing yoga, and I am passionate about sharing its transformative power with others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bee.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pending</t>
+  </si>
+  <si>
     <t xml:space="preserve">star</t>
   </si>
   <si>
@@ -1416,6 +1685,75 @@
   </si>
   <si>
     <t xml:space="preserve">Teacher is professional and I can follow the lesson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The class was refreshing and rejuvenating.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I felt so relaxed and centered after the session.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The instructor was knowledgeable and supportive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I loved the variety of poses we practiced.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ambiance of the studio was calming and inviting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I appreciated the focus on mindfulness during the class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was a perfect balance of challenge and relaxation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I left feeling more flexible and energized.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The breathing techniques really helped me release stress.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I enjoyed the community feeling in the class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The instructor provided clear instructions and guidance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I loved the soothing music in the background.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This class helped me connect with my body and mind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I felt a sense of accomplishment after mastering new poses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The class was exactly what I needed to unwind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I appreciated the modifications offered for different skill levels.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The meditation at the end was a wonderful touch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I felt a deep sense of peace throughout the session.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The instructor created a safe space for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would highly recommend this class to others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I experienced a profound release of tension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can't wait to come back for the next class!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so good, love it</t>
   </si>
 </sst>
 </file>
@@ -1525,7 +1863,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1543,10 +1881,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1669,13 +2003,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="176" zoomScaleNormal="176" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="176" zoomScaleNormal="176" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.5"/>
@@ -1750,49 +2084,136 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>64567890</v>
+        <v>64444444</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="1" t="n">
+        <v>65555555</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>64567890</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="n">
         <v>65678900</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>66666666</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>67777777</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>68888888</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="admin@admin.com"/>
     <hyperlink ref="A3" r:id="rId2" display="dickson@teacher.com"/>
     <hyperlink ref="A4" r:id="rId3" display="james@teacher.com"/>
-    <hyperlink ref="A5" r:id="rId4" display="zeus@user.com"/>
-    <hyperlink ref="A6" r:id="rId5" display="andrew@user.com"/>
+    <hyperlink ref="A5" r:id="rId4" display="ann@teacher.com"/>
+    <hyperlink ref="A6" r:id="rId5" display="bee@teacher.com"/>
+    <hyperlink ref="A7" r:id="rId6" display="zeus@user.com"/>
+    <hyperlink ref="A8" r:id="rId7" display="andrew@user.com"/>
+    <hyperlink ref="A9" r:id="rId8" display="emily@user.com"/>
+    <hyperlink ref="A10" r:id="rId9" display="ivy@user.com"/>
+    <hyperlink ref="A11" r:id="rId10" display="jack@user.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1809,53 +2230,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>12</v>
+        <v>368</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="C2" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1872,186 +2283,46 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.39453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="4" width="10.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="10.5"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="1"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="25.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="18.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>212</v>
+        <v>302</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>284</v>
+        <v>369</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>285</v>
+        <v>370</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>286</v>
+        <v>371</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>287</v>
+        <v>372</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>288</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>289</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2059,25 +2330,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>290</v>
+        <v>374</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>291</v>
+        <v>375</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>291</v>
+        <v>376</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>293</v>
+        <v>377</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>378</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2085,25 +2353,68 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>296</v>
+        <v>380</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>297</v>
+        <v>381</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>376</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>293</v>
+        <v>377</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>378</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>295</v>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="283.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -2117,45 +2428,367 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.39453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>298</v>
+        <v>388</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>299</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>300</v>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="71.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="60.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="71.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="48.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="60.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="71.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="71.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="48.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="71.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="60.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="83.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="48.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="71.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="71.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="60.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="83.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="71.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="60.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="71.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="60.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="60.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="48.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -2180,7 +2813,7 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.97"/>
   </cols>
@@ -2190,135 +2823,135 @@
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2337,13 +2970,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="123" zoomScaleNormal="123" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q10" activeCellId="0" sqref="Q10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="123" zoomScaleNormal="123" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.83"/>
@@ -2357,63 +2990,63 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>10</v>
@@ -2422,42 +3055,42 @@
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>5</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>10</v>
@@ -2466,42 +3099,42 @@
         <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>5</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>10</v>
@@ -2510,142 +3143,142 @@
         <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>5</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>7</v>
@@ -2654,148 +3287,136 @@
         <v>3</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>84</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="39.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H8" s="1" t="n">
+      <c r="L8" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="29.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L8" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P8" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>7</v>
-      </c>
       <c r="E9" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="L9" s="1" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P9" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="31.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>7</v>
@@ -2804,133 +3425,338 @@
         <v>3</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>84</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="L10" s="1" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="31.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="D11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="28.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E12" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="40.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="F14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="H14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="26.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="L11" s="1" t="n">
+      <c r="L16" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="M11" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P11" s="0" t="s">
+      <c r="M16" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" s="0" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H17" s="1"/>
@@ -2973,7 +3799,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="5"/>
+      <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
     </row>
@@ -3022,51 +3848,11 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3083,26 +3869,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3110,17 +3896,352 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
+      <c r="B14" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3144,22 +4265,22 @@
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>100</v>
@@ -3170,7 +4291,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>500</v>
@@ -3181,7 +4302,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1000</v>
@@ -3208,11 +4329,11 @@
   </sheetPr>
   <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.07"/>
@@ -3220,120 +4341,120 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="30.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>114</v>
+        <v>132</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="30.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>117</v>
+        <v>135</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>120</v>
+        <v>138</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="30.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>123</v>
+        <v>141</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="45.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>126</v>
+        <v>144</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>129</v>
+        <v>147</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>132</v>
+        <v>150</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -3342,43 +4463,43 @@
         <v>250</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>134</v>
+        <v>152</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>137</v>
+        <v>155</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="30.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>140</v>
+        <v>158</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -3387,178 +4508,178 @@
         <v>128</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>142</v>
+        <v>160</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>145</v>
+        <v>163</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="30.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>148</v>
+        <v>166</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="30.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>151</v>
+        <v>169</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="30.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>154</v>
+        <v>172</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="30.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="30.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>160</v>
+        <v>178</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="30.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>163</v>
+        <v>181</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="30.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>166</v>
+        <v>184</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>169</v>
+        <v>187</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>172</v>
+        <v>190</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="30.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>175</v>
+        <v>193</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E23" s="3"/>
     </row>
@@ -3567,15 +4688,15 @@
         <v>395</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>177</v>
+        <v>195</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="E24" s="6"/>
       <c r="F24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3583,15 +4704,15 @@
         <v>393</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>179</v>
+        <v>197</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="E25" s="6"/>
       <c r="F25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3599,15 +4720,15 @@
         <v>391</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>181</v>
+        <v>199</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="E26" s="6"/>
       <c r="F26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3615,15 +4736,15 @@
         <v>388</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>183</v>
+        <v>201</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="E27" s="6"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="99.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3631,15 +4752,15 @@
         <v>389</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="E28" s="6"/>
       <c r="F28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3647,15 +4768,15 @@
         <v>392</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>187</v>
+        <v>205</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="E29" s="6"/>
       <c r="F29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3663,15 +4784,15 @@
         <v>390</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>189</v>
+        <v>207</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="E30" s="6"/>
       <c r="F30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3679,15 +4800,15 @@
         <v>387</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>191</v>
+        <v>209</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="E31" s="6"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3868,49 +4989,52 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>196</v>
+        <v>211</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="n">
@@ -3920,72 +5044,1276 @@
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>-250</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>-250</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>-250</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>-250</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>-300</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>-300</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>-200</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>-200</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B36" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="C36" s="0" t="n">
+        <v>-300</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>-300</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>-300</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>-300</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>-400</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>-400</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>-400</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>-400</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>-350</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>-350</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D57" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>-350</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>-350</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>-300</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>-300</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>-200</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>-200</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>-300</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>-450</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="G75" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>-200</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="n">
-        <v>-100</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="0" t="n">
+      <c r="H75" s="0" t="n">
         <v>656776655</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>205</v>
-      </c>
+      <c r="I75" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4006,10 +6334,10 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="153" zoomScaleNormal="153" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.5"/>
   </cols>
@@ -4021,32 +6349,32 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>206</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>207</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>208</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>209</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>211</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -4065,602 +6393,649 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="149" zoomScaleNormal="149" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="149" zoomScaleNormal="149" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>302</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="F1" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="n">
+      <c r="A2" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>215</v>
+      <c r="B2" s="8" t="s">
+        <v>306</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>217</v>
+        <v>307</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="n">
+      <c r="A3" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>218</v>
+      <c r="B3" s="8" t="s">
+        <v>309</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>220</v>
+        <v>310</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>311</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="8" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="n">
+      <c r="A4" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>221</v>
+      <c r="B4" s="8" t="s">
+        <v>312</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>220</v>
+        <v>313</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>311</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="8" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="n">
+      <c r="A5" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>223</v>
+      <c r="B5" s="8" t="s">
+        <v>314</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>220</v>
+        <v>315</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>311</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="8" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="n">
+      <c r="A6" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>225</v>
+      <c r="B6" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>217</v>
+        <v>317</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="8" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="n">
+      <c r="A7" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>227</v>
+      <c r="B7" s="8" t="s">
+        <v>318</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>217</v>
+        <v>319</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="8" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="n">
+      <c r="A8" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>229</v>
+      <c r="B8" s="8" t="s">
+        <v>320</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>217</v>
+        <v>321</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="8" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="n">
+      <c r="A9" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>231</v>
+      <c r="B9" s="8" t="s">
+        <v>322</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>220</v>
+        <v>323</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>311</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="8" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="n">
+      <c r="A10" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>233</v>
+      <c r="B10" s="8" t="s">
+        <v>324</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>220</v>
+        <v>325</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>311</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="8" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="n">
+      <c r="A11" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>235</v>
+      <c r="B11" s="8" t="s">
+        <v>326</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>220</v>
+        <v>327</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>311</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="8" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="n">
+      <c r="A12" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>237</v>
+      <c r="B12" s="8" t="s">
+        <v>328</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>217</v>
+        <v>329</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="n">
+      <c r="A13" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>239</v>
+      <c r="B13" s="8" t="s">
+        <v>330</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>220</v>
+        <v>331</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>311</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="n">
+      <c r="A14" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>241</v>
+      <c r="B14" s="8" t="s">
+        <v>332</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>217</v>
+        <v>333</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="8" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="n">
+      <c r="A15" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>243</v>
+      <c r="B15" s="8" t="s">
+        <v>334</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="E15" s="9" t="n">
+        <v>335</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E15" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="8" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="n">
+      <c r="A16" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>245</v>
+      <c r="B16" s="8" t="s">
+        <v>336</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="E16" s="9" t="n">
+        <v>337</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E16" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="8" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="n">
+      <c r="A17" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>247</v>
+      <c r="B17" s="8" t="s">
+        <v>338</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="E17" s="9" t="n">
+        <v>339</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E17" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="8" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="n">
+      <c r="A18" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>249</v>
+      <c r="B18" s="8" t="s">
+        <v>340</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="E18" s="9" t="n">
+        <v>341</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E18" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="8" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="n">
+      <c r="A19" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>251</v>
+      <c r="B19" s="8" t="s">
+        <v>342</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E19" s="9" t="n">
+        <v>343</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E19" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="8" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="n">
+      <c r="A20" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>253</v>
+      <c r="B20" s="8" t="s">
+        <v>344</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="E20" s="9" t="n">
+        <v>345</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E20" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="8" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="n">
+      <c r="A21" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>255</v>
+      <c r="B21" s="8" t="s">
+        <v>346</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="E21" s="9" t="n">
+        <v>347</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E21" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="8" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="n">
+      <c r="A22" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>257</v>
+      <c r="B22" s="8" t="s">
+        <v>348</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="E22" s="9" t="n">
+        <v>349</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E22" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="8" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="n">
+      <c r="A23" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>259</v>
+      <c r="B23" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E23" s="9" t="n">
+        <v>351</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E23" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="8" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="n">
+      <c r="A24" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>261</v>
+      <c r="B24" s="8" t="s">
+        <v>352</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="E24" s="9" t="n">
+        <v>353</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E24" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="8" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="n">
+      <c r="A25" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>263</v>
+      <c r="B25" s="8" t="s">
+        <v>354</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E25" s="9" t="n">
+        <v>355</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E25" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="8" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="n">
+      <c r="A26" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>265</v>
+      <c r="B26" s="8" t="s">
+        <v>356</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E26" s="9" t="n">
+        <v>357</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E26" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="F26" s="9"/>
+      <c r="F26" s="8" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="n">
+      <c r="A27" s="9" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>267</v>
+      <c r="B27" s="8" t="s">
+        <v>358</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E27" s="9" t="n">
+        <v>359</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E27" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="F27" s="9"/>
+      <c r="F27" s="8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="n">
+      <c r="A28" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>269</v>
+      <c r="B28" s="8" t="s">
+        <v>360</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="E28" s="9" t="n">
+        <v>361</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E28" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="8" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>271</v>
+      <c r="A29" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>362</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="E29" s="9" t="n">
+        <v>363</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E29" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="F29" s="9"/>
+      <c r="F29" s="8" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>273</v>
+      <c r="A30" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>364</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E30" s="9" t="n">
+        <v>365</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E30" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="F30" s="9"/>
+      <c r="F30" s="8" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>275</v>
+      <c r="A31" s="9" t="n">
+        <v>31</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>366</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E31" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="F31" s="9"/>
+        <v>367</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" s="8" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="E32" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-    </row>
+      <c r="B32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:E32"/>
+  <autoFilter ref="A1:E31"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/backend/init_data.xlsx
+++ b/backend/init_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="416">
   <si>
     <t xml:space="preserve">email</t>
   </si>
@@ -1636,6 +1636,9 @@
     <t xml:space="preserve">remark</t>
   </si>
   <si>
+    <t xml:space="preserve">id_photo</t>
+  </si>
+  <si>
     <t xml:space="preserve">With a background in contemporary dance, My style of teaching focuses on awareness of movement and the connection between the body and mind.  Drawn to yoga’s power to create harmonic balance and still the mind, I have a passion for passing on what inspires me to others.</t>
   </si>
   <si>
@@ -1652,6 +1655,9 @@
   </si>
   <si>
     <t xml:space="preserve">accept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id.jpeg</t>
   </si>
   <si>
     <t xml:space="preserve">I have  pursued my education in a variety of Yoga styles such as Hatha, Ashtanga, Vinyasa, Yoga Therapy and Yin yoga, completing a total of 1000hrs of Teacher Training in India. As well as my Indian education, I have studied with top class teachers in London, developing an understanding and creating a style that binds the best of both, the traditional ancient eastern lineage and the modern scientific western approach.</t>
@@ -2005,11 +2011,11 @@
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="176" zoomScaleNormal="176" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="176" zoomScaleNormal="176" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.5"/>
@@ -2236,7 +2242,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="10.5"/>
   </cols>
@@ -2283,13 +2289,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.39453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.8"/>
@@ -2324,28 +2330,34 @@
       <c r="H1" s="0" t="s">
         <v>373</v>
       </c>
+      <c r="I1" s="0" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2353,22 +2365,25 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>381</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="283.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2376,22 +2391,25 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2399,22 +2417,25 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>384</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -2439,7 +2460,7 @@
       <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.39453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2449,10 +2470,10 @@
         <v>122</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2466,7 +2487,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="71.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2480,7 +2501,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="60.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2494,7 +2515,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="71.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2508,7 +2529,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="48.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2522,7 +2543,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="60.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2536,7 +2557,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="71.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2550,7 +2571,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="71.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2564,7 +2585,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="48.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2578,7 +2599,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="71.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2592,7 +2613,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="60.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2606,7 +2627,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="83.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2620,7 +2641,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="48.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2634,7 +2655,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="71.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2648,7 +2669,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="71.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2662,7 +2683,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="60.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2676,7 +2697,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="83.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2690,7 +2711,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="71.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2704,7 +2725,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="60.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2718,7 +2739,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="71.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2732,7 +2753,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="60.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2746,7 +2767,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="60.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2760,7 +2781,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="48.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2774,7 +2795,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2788,7 +2809,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -2813,7 +2834,7 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.97"/>
   </cols>
@@ -2976,7 +2997,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.83"/>
@@ -3875,7 +3896,7 @@
       <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.5"/>
   </cols>
@@ -4265,7 +4286,7 @@
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4333,7 +4354,7 @@
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.07"/>
@@ -4995,7 +5016,7 @@
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.5"/>
   </cols>
@@ -6337,7 +6358,7 @@
       <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.5"/>
   </cols>
@@ -6399,7 +6420,7 @@
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.56"/>

--- a/backend/init_data.xlsx
+++ b/backend/init_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" state="visible" r:id="rId2"/>
@@ -1770,7 +1770,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1795,6 +1795,13 @@
     </font>
     <font>
       <u val="single"/>
+      <sz val="12"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -1869,7 +1876,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1882,6 +1889,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1890,7 +1901,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1898,11 +1909,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2011,11 +2022,11 @@
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="176" zoomScaleNormal="176" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="176" zoomScaleNormal="176" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.5"/>
@@ -2141,7 +2152,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2242,7 +2253,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="10.5"/>
   </cols>
@@ -2291,11 +2302,11 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F21" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.8"/>
@@ -2338,16 +2349,16 @@
       <c r="A2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>378</v>
       </c>
       <c r="F2" s="0" t="s">
@@ -2364,16 +2375,16 @@
       <c r="A3" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>382</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>383</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>378</v>
       </c>
       <c r="F3" s="0" t="s">
@@ -2390,7 +2401,7 @@
       <c r="A4" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>384</v>
       </c>
       <c r="C4" s="0" t="s">
@@ -2399,7 +2410,7 @@
       <c r="D4" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>378</v>
       </c>
       <c r="F4" s="0" t="s">
@@ -2425,7 +2436,7 @@
       <c r="D5" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>378</v>
       </c>
       <c r="F5" s="0" t="s">
@@ -2460,7 +2471,7 @@
       <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2500,7 +2511,7 @@
       <c r="C3" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>393</v>
       </c>
     </row>
@@ -2514,7 +2525,7 @@
       <c r="C4" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>394</v>
       </c>
     </row>
@@ -2528,7 +2539,7 @@
       <c r="C5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>395</v>
       </c>
     </row>
@@ -2542,7 +2553,7 @@
       <c r="C6" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>396</v>
       </c>
     </row>
@@ -2556,7 +2567,7 @@
       <c r="C7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>397</v>
       </c>
     </row>
@@ -2570,7 +2581,7 @@
       <c r="C8" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>398</v>
       </c>
     </row>
@@ -2584,7 +2595,7 @@
       <c r="C9" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>399</v>
       </c>
     </row>
@@ -2598,7 +2609,7 @@
       <c r="C10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>400</v>
       </c>
     </row>
@@ -2612,7 +2623,7 @@
       <c r="C11" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>401</v>
       </c>
     </row>
@@ -2626,7 +2637,7 @@
       <c r="C12" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>402</v>
       </c>
     </row>
@@ -2640,7 +2651,7 @@
       <c r="C13" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>403</v>
       </c>
     </row>
@@ -2654,7 +2665,7 @@
       <c r="C14" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>404</v>
       </c>
     </row>
@@ -2668,7 +2679,7 @@
       <c r="C15" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>405</v>
       </c>
     </row>
@@ -2682,7 +2693,7 @@
       <c r="C16" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>406</v>
       </c>
     </row>
@@ -2696,7 +2707,7 @@
       <c r="C17" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>407</v>
       </c>
     </row>
@@ -2710,7 +2721,7 @@
       <c r="C18" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>408</v>
       </c>
     </row>
@@ -2724,7 +2735,7 @@
       <c r="C19" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>409</v>
       </c>
     </row>
@@ -2738,7 +2749,7 @@
       <c r="C20" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>410</v>
       </c>
     </row>
@@ -2752,7 +2763,7 @@
       <c r="C21" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>411</v>
       </c>
     </row>
@@ -2766,7 +2777,7 @@
       <c r="C22" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>412</v>
       </c>
     </row>
@@ -2780,7 +2791,7 @@
       <c r="C23" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>413</v>
       </c>
     </row>
@@ -2794,7 +2805,7 @@
       <c r="C24" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>414</v>
       </c>
     </row>
@@ -2834,7 +2845,7 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.39453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.97"/>
   </cols>
@@ -2848,7 +2859,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -2856,7 +2867,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -2864,7 +2875,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -2872,7 +2883,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="0" t="s">
@@ -2880,7 +2891,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="0" t="s">
@@ -2888,7 +2899,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="0" t="s">
@@ -2896,7 +2907,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="0" t="s">
@@ -2904,7 +2915,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="0" t="s">
@@ -2912,7 +2923,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="0" t="s">
@@ -2920,7 +2931,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="0" t="s">
@@ -2928,7 +2939,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="0" t="s">
@@ -2936,7 +2947,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B13" s="0" t="s">
@@ -2944,7 +2955,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="0" t="s">
@@ -2952,7 +2963,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="0" t="s">
@@ -2960,7 +2971,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B16" s="0" t="s">
@@ -2997,14 +3008,14 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="11.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="5" width="10.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.5"/>
   </cols>
@@ -3034,7 +3045,7 @@
       <c r="H1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -3046,13 +3057,13 @@
       <c r="L1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>60</v>
       </c>
       <c r="P1" s="0" t="s">
@@ -3075,13 +3086,13 @@
       <c r="E2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>65</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -3093,13 +3104,13 @@
       <c r="L2" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3119,13 +3130,13 @@
       <c r="E3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>65</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -3137,13 +3148,13 @@
       <c r="L3" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3163,13 +3174,13 @@
       <c r="E4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>65</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -3181,13 +3192,13 @@
       <c r="L4" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="5" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3207,7 +3218,7 @@
       <c r="E5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -3216,7 +3227,7 @@
       <c r="H5" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -3228,13 +3239,13 @@
       <c r="L5" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="5" t="s">
         <v>80</v>
       </c>
       <c r="P5" s="0" t="s">
@@ -3257,7 +3268,7 @@
       <c r="E6" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -3266,7 +3277,7 @@
       <c r="H6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -3278,13 +3289,13 @@
       <c r="L6" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="5" t="s">
         <v>70</v>
       </c>
       <c r="P6" s="0" t="s">
@@ -3307,7 +3318,7 @@
       <c r="E7" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -3316,7 +3327,7 @@
       <c r="H7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -3328,13 +3339,13 @@
       <c r="L7" s="1" t="n">
         <v>350</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="5" t="s">
         <v>80</v>
       </c>
       <c r="P7" s="0" t="s">
@@ -3357,13 +3368,13 @@
       <c r="E8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>65</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -3375,13 +3386,13 @@
       <c r="L8" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3401,13 +3412,13 @@
       <c r="E9" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>65</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -3419,13 +3430,13 @@
       <c r="L9" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="5" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3445,7 +3456,7 @@
       <c r="E10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -3454,7 +3465,7 @@
       <c r="H10" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -3466,13 +3477,13 @@
       <c r="L10" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="N10" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="O10" s="5" t="s">
         <v>80</v>
       </c>
       <c r="P10" s="0" t="s">
@@ -3495,7 +3506,7 @@
       <c r="E11" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -3504,7 +3515,7 @@
       <c r="H11" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -3516,13 +3527,13 @@
       <c r="L11" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="N11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="O11" s="5" t="s">
         <v>70</v>
       </c>
       <c r="P11" s="0" t="s">
@@ -3545,7 +3556,7 @@
       <c r="E12" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -3554,7 +3565,7 @@
       <c r="H12" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -3566,13 +3577,13 @@
       <c r="L12" s="1" t="n">
         <v>350</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="O12" s="5" t="s">
         <v>80</v>
       </c>
       <c r="P12" s="0" t="s">
@@ -3595,7 +3606,7 @@
       <c r="E13" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -3604,7 +3615,7 @@
       <c r="H13" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -3616,13 +3627,13 @@
       <c r="L13" s="1" t="n">
         <v>450</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="O13" s="5" t="s">
         <v>70</v>
       </c>
       <c r="P13" s="0" t="s">
@@ -3645,7 +3656,7 @@
       <c r="E14" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -3654,7 +3665,7 @@
       <c r="H14" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -3666,13 +3677,13 @@
       <c r="L14" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="5" t="s">
         <v>80</v>
       </c>
       <c r="P14" s="0" t="s">
@@ -3695,7 +3706,7 @@
       <c r="E15" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -3704,7 +3715,7 @@
       <c r="H15" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -3716,13 +3727,13 @@
       <c r="L15" s="1" t="n">
         <v>450</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="N15" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="O15" s="5" t="s">
         <v>80</v>
       </c>
       <c r="P15" s="0" t="s">
@@ -3745,7 +3756,7 @@
       <c r="E16" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -3754,7 +3765,7 @@
       <c r="H16" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -3766,13 +3777,13 @@
       <c r="L16" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="N16" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="O16" s="5" t="s">
         <v>80</v>
       </c>
       <c r="P16" s="0" t="s">
@@ -3784,90 +3795,90 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="2"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="2"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="2"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="2"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="2"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3896,7 +3907,7 @@
       <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.5"/>
   </cols>
@@ -4286,7 +4297,7 @@
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4354,7 +4365,7 @@
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.07"/>
@@ -4375,462 +4386,462 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="30.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="30.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="3"/>
+      <c r="D4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="30.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="3"/>
+      <c r="D5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="45.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="3"/>
+      <c r="D6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="3"/>
+      <c r="D7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="3"/>
+      <c r="D8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="30.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="4" t="n">
         <v>250</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="3"/>
+      <c r="D9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="3"/>
+      <c r="D10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="30.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="3"/>
+      <c r="D11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="30.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="4" t="n">
         <v>128</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="3"/>
+      <c r="D12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="3"/>
+      <c r="D13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="30.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="3"/>
+      <c r="D14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="30.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="3"/>
+      <c r="D15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="30.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="3"/>
+      <c r="D16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="30.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="3"/>
+      <c r="D17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="30.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="3"/>
+      <c r="D18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="30.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="3"/>
+      <c r="D19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="30.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="3"/>
+      <c r="D20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="3"/>
+      <c r="D21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="3"/>
+      <c r="D22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="30.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="3"/>
+      <c r="D23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="4" t="n">
         <v>395</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="3"/>
+      <c r="D24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="4" t="n">
         <v>393</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="3"/>
+      <c r="D25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="4" t="n">
         <v>391</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="3"/>
+      <c r="D26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="4" t="n">
         <v>388</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="3"/>
+      <c r="D27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="99.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="4" t="n">
         <v>389</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="3"/>
+      <c r="D28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="4" t="n">
         <v>392</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="3"/>
+      <c r="D29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="4" t="n">
         <v>390</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="3"/>
+      <c r="D30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="4" t="n">
         <v>387</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="3"/>
+      <c r="D31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5012,11 +5023,11 @@
   </sheetPr>
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.5"/>
   </cols>
@@ -5049,7 +5060,7 @@
       <c r="I1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>216</v>
       </c>
     </row>
@@ -5545,7 +5556,7 @@
       <c r="E30" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="4" t="s">
         <v>248</v>
       </c>
     </row>
@@ -5562,7 +5573,7 @@
       <c r="E31" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="4" t="s">
         <v>249</v>
       </c>
     </row>
@@ -5580,7 +5591,7 @@
       <c r="E32" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="4" t="s">
         <v>250</v>
       </c>
     </row>
@@ -5597,7 +5608,7 @@
       <c r="E33" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="4" t="s">
         <v>251</v>
       </c>
     </row>
@@ -5614,7 +5625,7 @@
       <c r="E34" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="4" t="s">
         <v>252</v>
       </c>
     </row>
@@ -5631,7 +5642,7 @@
       <c r="E35" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="4" t="s">
         <v>253</v>
       </c>
     </row>
@@ -5648,7 +5659,7 @@
       <c r="E36" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="4" t="s">
         <v>254</v>
       </c>
     </row>
@@ -5665,7 +5676,7 @@
       <c r="E37" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="4" t="s">
         <v>255</v>
       </c>
     </row>
@@ -5682,7 +5693,7 @@
       <c r="E38" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="4" t="s">
         <v>256</v>
       </c>
     </row>
@@ -5699,7 +5710,7 @@
       <c r="E39" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="4" t="s">
         <v>257</v>
       </c>
     </row>
@@ -5716,7 +5727,7 @@
       <c r="E40" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="4" t="s">
         <v>258</v>
       </c>
     </row>
@@ -5733,7 +5744,7 @@
       <c r="E41" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="4" t="s">
         <v>259</v>
       </c>
     </row>
@@ -5750,7 +5761,7 @@
       <c r="E42" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="4" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5767,7 +5778,7 @@
       <c r="E43" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="4" t="s">
         <v>261</v>
       </c>
     </row>
@@ -5784,7 +5795,7 @@
       <c r="E44" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="4" t="s">
         <v>262</v>
       </c>
     </row>
@@ -5801,7 +5812,7 @@
       <c r="E45" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="4" t="s">
         <v>263</v>
       </c>
     </row>
@@ -5818,7 +5829,7 @@
       <c r="E46" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="4" t="s">
         <v>264</v>
       </c>
     </row>
@@ -5835,7 +5846,7 @@
       <c r="E47" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="4" t="s">
         <v>265</v>
       </c>
     </row>
@@ -5852,7 +5863,7 @@
       <c r="E48" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="4" t="s">
         <v>266</v>
       </c>
     </row>
@@ -5869,7 +5880,7 @@
       <c r="E49" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="4" t="s">
         <v>267</v>
       </c>
     </row>
@@ -5886,7 +5897,7 @@
       <c r="E50" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="4" t="s">
         <v>268</v>
       </c>
     </row>
@@ -5903,7 +5914,7 @@
       <c r="E51" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="4" t="s">
         <v>269</v>
       </c>
     </row>
@@ -5920,7 +5931,7 @@
       <c r="E52" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="4" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5937,7 +5948,7 @@
       <c r="E53" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="4" t="s">
         <v>271</v>
       </c>
     </row>
@@ -5954,7 +5965,7 @@
       <c r="E54" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="4" t="s">
         <v>272</v>
       </c>
     </row>
@@ -5971,7 +5982,7 @@
       <c r="E55" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="4" t="s">
         <v>273</v>
       </c>
     </row>
@@ -5988,7 +5999,7 @@
       <c r="E56" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F56" s="4" t="s">
         <v>274</v>
       </c>
     </row>
@@ -6006,7 +6017,7 @@
       <c r="E57" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F57" s="4" t="s">
         <v>275</v>
       </c>
     </row>
@@ -6023,7 +6034,7 @@
       <c r="E58" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="4" t="s">
         <v>276</v>
       </c>
     </row>
@@ -6040,7 +6051,7 @@
       <c r="E59" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F59" s="4" t="s">
         <v>277</v>
       </c>
     </row>
@@ -6057,7 +6068,7 @@
       <c r="E60" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F60" s="4" t="s">
         <v>278</v>
       </c>
     </row>
@@ -6074,7 +6085,7 @@
       <c r="E61" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F61" s="4" t="s">
         <v>279</v>
       </c>
     </row>
@@ -6091,7 +6102,7 @@
       <c r="E62" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" s="4" t="s">
         <v>280</v>
       </c>
     </row>
@@ -6108,7 +6119,7 @@
       <c r="E63" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F63" s="4" t="s">
         <v>281</v>
       </c>
     </row>
@@ -6125,7 +6136,7 @@
       <c r="E64" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F64" s="4" t="s">
         <v>282</v>
       </c>
     </row>
@@ -6142,7 +6153,7 @@
       <c r="E65" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F65" s="4" t="s">
         <v>283</v>
       </c>
     </row>
@@ -6159,7 +6170,7 @@
       <c r="E66" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="4" t="s">
         <v>284</v>
       </c>
     </row>
@@ -6176,7 +6187,7 @@
       <c r="E67" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="F67" s="4" t="s">
         <v>285</v>
       </c>
     </row>
@@ -6193,7 +6204,7 @@
       <c r="E68" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F68" s="4" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6210,7 +6221,7 @@
       <c r="E69" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F69" s="4" t="s">
         <v>287</v>
       </c>
     </row>
@@ -6227,7 +6238,7 @@
       <c r="E70" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F70" s="4" t="s">
         <v>288</v>
       </c>
     </row>
@@ -6244,7 +6255,7 @@
       <c r="E71" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F71" s="4" t="s">
         <v>289</v>
       </c>
     </row>
@@ -6261,7 +6272,7 @@
       <c r="E72" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F72" s="4" t="s">
         <v>290</v>
       </c>
     </row>
@@ -6278,7 +6289,7 @@
       <c r="E73" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="F73" s="4" t="s">
         <v>291</v>
       </c>
     </row>
@@ -6295,7 +6306,7 @@
       <c r="E74" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F74" s="4" t="s">
         <v>292</v>
       </c>
     </row>
@@ -6358,7 +6369,7 @@
       <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.5"/>
   </cols>
@@ -6420,7 +6431,7 @@
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.56"/>
@@ -6439,620 +6450,620 @@
       <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="n">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>306</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>308</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="8" t="n">
+      <c r="F2" s="9" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
+      <c r="A3" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>309</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>311</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="9" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
+      <c r="A4" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>312</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>311</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="9" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="n">
+      <c r="A5" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>314</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>311</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="9" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
+      <c r="A6" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>316</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>308</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="F6" s="9" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
+      <c r="A7" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>318</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>308</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="9" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
+      <c r="A8" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>320</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>308</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="8" t="n">
+      <c r="F8" s="9" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="n">
+      <c r="A9" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>322</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>311</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="8" t="n">
+      <c r="F9" s="9" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="n">
+      <c r="A10" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>324</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>311</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="8" t="n">
+      <c r="F10" s="9" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="n">
+      <c r="A11" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>326</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>311</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F11" s="9" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="n">
+      <c r="A12" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>328</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>308</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F12" s="8" t="n">
+      <c r="F12" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="n">
+      <c r="A13" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>330</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>311</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F13" s="8" t="n">
+      <c r="F13" s="9" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="n">
+      <c r="A14" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>332</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="9" t="s">
         <v>308</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F14" s="8" t="n">
+      <c r="F14" s="9" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="n">
+      <c r="A15" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>334</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="E15" s="8" t="n">
+      <c r="E15" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="F15" s="8" t="n">
+      <c r="F15" s="9" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="n">
+      <c r="A16" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>336</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="E16" s="8" t="n">
+      <c r="E16" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="F16" s="8" t="n">
+      <c r="F16" s="9" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="n">
+      <c r="A17" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>338</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="E17" s="8" t="n">
+      <c r="E17" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="F17" s="8" t="n">
+      <c r="F17" s="9" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="n">
+      <c r="A18" s="10" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>340</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="E18" s="8" t="n">
+      <c r="E18" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="F18" s="8" t="n">
+      <c r="F18" s="9" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="n">
+      <c r="A19" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>342</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="E19" s="8" t="n">
+      <c r="E19" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="F19" s="8" t="n">
+      <c r="F19" s="9" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="n">
+      <c r="A20" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>344</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="E20" s="8" t="n">
+      <c r="E20" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="F20" s="8" t="n">
+      <c r="F20" s="9" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="n">
+      <c r="A21" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>346</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="E21" s="8" t="n">
+      <c r="E21" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="F21" s="8" t="n">
+      <c r="F21" s="9" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="n">
+      <c r="A22" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>348</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="E22" s="8" t="n">
+      <c r="E22" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="F22" s="8" t="n">
+      <c r="F22" s="9" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="n">
+      <c r="A23" s="10" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>350</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="E23" s="8" t="n">
+      <c r="E23" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="F23" s="8" t="n">
+      <c r="F23" s="9" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="n">
+      <c r="A24" s="10" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="9" t="s">
         <v>352</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="E24" s="8" t="n">
+      <c r="E24" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="8" t="n">
+      <c r="F24" s="9" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="n">
+      <c r="A25" s="10" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>354</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="E25" s="8" t="n">
+      <c r="E25" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="F25" s="8" t="n">
+      <c r="F25" s="9" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="n">
+      <c r="A26" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="9" t="s">
         <v>356</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="E26" s="8" t="n">
+      <c r="E26" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="F26" s="8" t="n">
+      <c r="F26" s="9" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="n">
+      <c r="A27" s="10" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="9" t="s">
         <v>358</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="E27" s="8" t="n">
+      <c r="E27" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="F27" s="8" t="n">
+      <c r="F27" s="9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="n">
+      <c r="A28" s="10" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>360</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="E28" s="8" t="n">
+      <c r="E28" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="F28" s="8" t="n">
+      <c r="F28" s="9" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="n">
+      <c r="A29" s="10" t="n">
         <v>29</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="9" t="s">
         <v>362</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="E29" s="8" t="n">
+      <c r="E29" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="F29" s="8" t="n">
+      <c r="F29" s="9" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="n">
+      <c r="A30" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>364</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="E30" s="8" t="n">
+      <c r="E30" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="F30" s="8" t="n">
+      <c r="F30" s="9" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="n">
+      <c r="A31" s="10" t="n">
         <v>31</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="9" t="s">
         <v>366</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="E31" s="8" t="n">
+      <c r="E31" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="F31" s="8" t="n">
+      <c r="F31" s="9" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
